--- a/integrantes.xlsx
+++ b/integrantes.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LDMM\Documents\GitHub\Modelo_Jonathan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="18960" windowHeight="7995"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -318,8 +323,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,8 +332,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +383,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -384,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -394,6 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,6 +422,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -451,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,7 +508,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,13 +755,15 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9">
         <v>6</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">

--- a/integrantes.xlsx
+++ b/integrantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LDMM\Documents\GitHub\Modelo_Jonathan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB-8\Documents\modelo_dayana\modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
   <si>
     <t>ITEM</t>
   </si>
@@ -318,13 +318,16 @@
   </si>
   <si>
     <t>reingresos</t>
+  </si>
+  <si>
+    <t>ASISTENCIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +342,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +398,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -402,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -413,6 +434,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,7 +744,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +779,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="9"/>
@@ -1003,7 +1027,7 @@
       <c r="A29" s="2">
         <v>5</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3">
@@ -1072,7 +1096,7 @@
       <c r="A37" s="2">
         <v>6</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="6">
@@ -1123,7 +1147,7 @@
       <c r="A43" s="2">
         <v>7</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D43" s="6">
@@ -1283,6 +1307,12 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="D63">
         <f>SUM(D2:D62)</f>
         <v>38</v>

--- a/integrantes.xlsx
+++ b/integrantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB-8\Documents\modelo_dayana\modelo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -349,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +410,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -423,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -437,12 +455,24 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFCC"/>
+      <color rgb="FF00CCFF"/>
+      <color rgb="FFFF0066"/>
+      <color rgb="FF800000"/>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -743,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,10 +939,10 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="15">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="3">
@@ -963,10 +993,10 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="6">
@@ -1190,10 +1220,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="14">
         <v>8</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">

--- a/integrantes.xlsx
+++ b/integrantes.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\modelo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="18960" windowHeight="7995"/>
   </bookViews>
@@ -326,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +423,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -441,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -458,6 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +468,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
+      <color rgb="FF800000"/>
       <color rgb="FF00FFCC"/>
       <color rgb="FF00CCFF"/>
-      <color rgb="FFFF0066"/>
-      <color rgb="FF800000"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -527,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,7 +564,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -771,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +787,7 @@
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,8 +806,9 @@
       <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -818,8 +821,9 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -830,8 +834,9 @@
         <v>60</v>
       </c>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -839,8 +844,9 @@
         <v>78</v>
       </c>
       <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -848,8 +854,9 @@
         <v>79</v>
       </c>
       <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -857,8 +864,9 @@
         <v>80</v>
       </c>
       <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
@@ -866,8 +874,9 @@
         <v>81</v>
       </c>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
@@ -875,20 +884,23 @@
         <v>82</v>
       </c>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="D11" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
@@ -910,8 +923,9 @@
         <v>60</v>
       </c>
       <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -919,8 +933,9 @@
         <v>84</v>
       </c>
       <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
@@ -928,8 +943,9 @@
         <v>85</v>
       </c>
       <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
@@ -937,8 +953,9 @@
         <v>96</v>
       </c>
       <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>3</v>
       </c>
@@ -949,8 +966,9 @@
         <v>4</v>
       </c>
       <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
@@ -961,8 +979,9 @@
         <v>60</v>
       </c>
       <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
@@ -970,8 +989,9 @@
         <v>74</v>
       </c>
       <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>98</v>
       </c>
@@ -982,8 +1002,9 @@
         <v>75</v>
       </c>
       <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
@@ -991,8 +1012,9 @@
         <v>76</v>
       </c>
       <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
@@ -1002,8 +1024,9 @@
       <c r="D21" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
@@ -1013,24 +1036,27 @@
       <c r="E22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1038,22 +1064,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -1065,7 +1091,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1077,7 +1103,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
@@ -1086,7 +1112,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1269,7 +1295,7 @@
       <c r="A53" s="2">
         <v>9</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D53" s="3">

--- a/integrantes.xlsx
+++ b/integrantes.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="18960" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="18960" windowHeight="5625"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>ITEM</t>
   </si>
@@ -316,6 +316,21 @@
   </si>
   <si>
     <t>ASISTENCIA</t>
+  </si>
+  <si>
+    <t>finalizado modelo</t>
+  </si>
+  <si>
+    <t>finalizado</t>
+  </si>
+  <si>
+    <t>finalizafo</t>
+  </si>
+  <si>
+    <t>MODULO TRAMITES</t>
+  </si>
+  <si>
+    <t>MODULO PORTAL</t>
   </si>
 </sst>
 </file>
@@ -773,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +821,9 @@
       <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -821,7 +838,7 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
@@ -834,7 +851,7 @@
         <v>60</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
@@ -844,7 +861,7 @@
         <v>78</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
@@ -854,7 +871,7 @@
         <v>79</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
@@ -864,7 +881,7 @@
         <v>80</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
@@ -874,7 +891,7 @@
         <v>81</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
@@ -884,21 +901,21 @@
         <v>82</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -910,7 +927,9 @@
       <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
@@ -923,7 +942,7 @@
         <v>60</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
@@ -933,7 +952,7 @@
         <v>84</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
@@ -943,7 +962,7 @@
         <v>85</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
@@ -953,7 +972,7 @@
         <v>96</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
@@ -966,7 +985,9 @@
         <v>4</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
@@ -979,7 +1000,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
@@ -989,7 +1010,7 @@
         <v>74</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1002,7 +1023,7 @@
         <v>75</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
@@ -1012,7 +1033,7 @@
         <v>76</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -1024,7 +1045,9 @@
       <c r="D21" s="6">
         <v>4</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
@@ -1036,7 +1059,7 @@
       <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
@@ -1045,7 +1068,7 @@
       <c r="D23" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
@@ -1054,7 +1077,7 @@
       <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
@@ -1121,7 +1144,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>32</v>
       </c>
@@ -1130,25 +1153,25 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>6</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="D37" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
         <v>36</v>
       </c>
@@ -1170,7 +1196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
         <v>37</v>
       </c>
@@ -1178,7 +1204,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
         <v>38</v>
       </c>
@@ -1186,7 +1212,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
         <v>39</v>
       </c>
@@ -1194,12 +1220,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>7</v>
       </c>
@@ -1210,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>44</v>
       </c>
@@ -1221,7 +1247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
         <v>45</v>
       </c>
@@ -1229,7 +1255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="4" t="s">
         <v>46</v>
       </c>
@@ -1237,7 +1263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
         <v>47</v>
       </c>
@@ -1245,7 +1271,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>8</v>
       </c>
@@ -1256,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>48</v>
       </c>
@@ -1267,7 +1293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1275,7 +1301,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
         <v>50</v>
       </c>
@@ -1283,7 +1309,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
         <v>51</v>
       </c>
@@ -1291,7 +1317,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>9</v>
       </c>
@@ -1302,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
         <v>52</v>
       </c>
@@ -1313,7 +1339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
         <v>53</v>
       </c>
@@ -1321,17 +1347,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>10</v>
       </c>
@@ -1342,27 +1368,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -1372,6 +1398,25 @@
       <c r="D63">
         <f>SUM(D2:D62)</f>
         <v>38</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/integrantes.xlsx
+++ b/integrantes.xlsx
@@ -15,8 +15,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO PARTICIPO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO PARTICIPO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO PARTICIPO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO PARTICIPO</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
   <si>
     <t>ITEM</t>
   </si>
@@ -327,17 +433,38 @@
     <t>finalizafo</t>
   </si>
   <si>
-    <t>MODULO TRAMITES</t>
-  </si>
-  <si>
     <t>MODULO PORTAL</t>
+  </si>
+  <si>
+    <t>JUAN  CARLOS PALMA</t>
+  </si>
+  <si>
+    <t>JHONATHAN GUTIERREZ</t>
+  </si>
+  <si>
+    <t>DAVID CHIGUANO</t>
+  </si>
+  <si>
+    <t>DIEGO ALLAICA</t>
+  </si>
+  <si>
+    <t>IVETTE TELLO</t>
+  </si>
+  <si>
+    <t>SOFIA CHAUCA</t>
+  </si>
+  <si>
+    <t>NICOLAS CAJILEMA</t>
+  </si>
+  <si>
+    <t>MODULO SEGUIMIENTO DOCUMENTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,8 +485,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,18 +544,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,7 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -467,14 +595,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,11 +914,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,100 +948,125 @@
       <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15">
         <v>6</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="14"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -927,7 +1079,7 @@
       <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -955,37 +1107,43 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>3</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1036,16 +1194,16 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="6">
         <v>4</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1103,22 +1261,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="14">
         <v>5</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="3">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14">
         <v>4</v>
       </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E30" t="s">
@@ -1127,61 +1288,76 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="14" t="s">
         <v>89</v>
       </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="14" t="s">
         <v>90</v>
       </c>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="14" t="s">
         <v>95</v>
       </c>
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="D34" s="14"/>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="D35" s="14"/>
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="4" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="D36" s="14"/>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>6</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="6">
         <v>4</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1272,10 +1448,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="11">
         <v>8</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
@@ -1318,21 +1494,24 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="13">
         <v>9</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="3">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="4" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="13" t="s">
         <v>86</v>
       </c>
       <c r="E54" t="s">
@@ -1340,22 +1519,30 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="4" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="4" t="s">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13" t="s">
         <v>54</v>
       </c>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="4" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13" t="s">
         <v>55</v>
       </c>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -1372,11 +1559,17 @@
       <c r="C59" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="D60" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
@@ -1399,29 +1592,55 @@
         <f>SUM(D2:D62)</f>
         <v>38</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
